--- a/xlsx/金银复本位_intext.xlsx
+++ b/xlsx/金银复本位_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
   <si>
     <t>金银复本位</t>
   </si>
@@ -29,13 +29,13 @@
     <t>金</t>
   </si>
   <si>
-    <t>政策_政策_貨幣政策_金银复本位</t>
+    <t>政策_政策_货币政策_金银复本位</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8A%80</t>
   </si>
   <si>
-    <t>銀</t>
+    <t>银</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%90%E6%96%99</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%B2%E5%8F%A3</t>
   </si>
   <si>
-    <t>進口</t>
+    <t>进口</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%BB%99</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%AF%E7%8E%87</t>
   </si>
   <si>
-    <t>匯率</t>
+    <t>汇率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E8%A1%8C</t>
@@ -215,9 +215,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%87%E7%8E%87</t>
   </si>
   <si>
-    <t>汇率</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E5%9C%B0</t>
   </si>
   <si>
@@ -227,7 +224,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A3%E5%B9%A3%E9%A9%85%E9%80%90%E8%89%AF%E5%B9%A3</t>
   </si>
   <si>
-    <t>劣幣驅逐良幣</t>
+    <t>劣币驱逐良币</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B</t>
@@ -1550,7 +1547,7 @@
         <v>65</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1576,10 +1573,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1605,10 +1602,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
@@ -1634,10 +1631,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>3</v>
@@ -1663,10 +1660,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>2</v>
@@ -1692,10 +1689,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>3</v>
@@ -1721,10 +1718,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
